--- a/KPLC APP/corporate.xlsx
+++ b/KPLC APP/corporate.xlsx
@@ -6,15 +6,30 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Name_of_Participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile_No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USIU</t>
   </si>
 </sst>
 </file>
@@ -350,7 +365,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34343434</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>707070707</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
